--- a/correos.xlsx
+++ b/correos.xlsx
@@ -100,7 +100,7 @@
     <t>theaestheticsdoctor</t>
   </si>
   <si>
-    <t>info@theaestheticsdoctor.com,mike.rushton@stackwizards.com,jack@gibsonhaus.com,alistair.hey@stackwizards.com,james@gibsonhaus.com,media.bobbledigital@gmail.com</t>
+    <t>info@theaestheticsdoctor.com,mike.rushton@stackwizards.com,jack@gibsonhaus.com,alistair.hey@stackwizards.com,james@gibsonhaus.com,media.bobbledigital@gmail.com,example@example.com,mujer12@example.com</t>
   </si>
   <si>
     <t>http://www.karwalaesthetics.com</t>
@@ -148,7 +148,7 @@
     <t>in/drayhamalayoubi</t>
   </si>
   <si>
-    <t>info@lmaclinic.com</t>
+    <t>info@lmaclinic.com, example@gmail.com</t>
   </si>
   <si>
     <t>http://www.sisuclinic.com</t>
@@ -2123,12 +2123,10 @@
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2166,10 +2164,10 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2390,7 +2388,6 @@
     <col customWidth="1" min="20" max="20" width="0.43"/>
     <col customWidth="1" min="21" max="21" width="55.86"/>
     <col customWidth="1" min="22" max="22" width="57.57"/>
-    <col customWidth="1" min="23" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2454,7 +2451,7 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -2462,31 +2459,31 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="U2" s="3" t="s">
@@ -2494,60 +2491,60 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>4.420834211E11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="U4" s="3" t="s">
@@ -2555,2685 +2552,2685 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>4.42078285602E11</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>4.4771918682E11</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="U16" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="U18" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>4.42035987358E11</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="U19" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="U21" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>4.47917796064E11</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P27" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="U27" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="P28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="U28" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="U31" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="U32" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="U33" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="P34" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="P36" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="R36" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="U36" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="P38" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="U38" s="3" t="s">
+      <c r="U38" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>4.4775760476E11</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="U39" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="P40" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="U40" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>4.47889954996E11</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="O41" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="P41" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="Q41" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="R41" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="U41" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="P42" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="2">
         <v>2422706.0</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="U42" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="P45" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="U45" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="O46" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="P46" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="U46" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>4.401708540047E12</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="U47" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="O48" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="P48" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="U48" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="M50" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="N50" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="O50" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="P50" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="U50" s="3" t="s">
+      <c r="U50" s="2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="M51" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="N51" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="O51" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="P51" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="O54" s="3" t="s">
+      <c r="O54" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="P54" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="U54" s="3" t="s">
+      <c r="U54" s="2" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="M56" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="N56" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="O56" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="P56" s="3" t="s">
+      <c r="P56" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="Q56" s="3" t="s">
+      <c r="Q56" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="R56" s="3" t="s">
+      <c r="R56" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="U56" s="3" t="s">
+      <c r="U56" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="O57" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="P57" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="U57" s="2" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="O59" s="3" t="s">
+      <c r="O59" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="P59" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="U59" s="3" t="s">
+      <c r="U59" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I60" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="O60" s="3" t="s">
+      <c r="O60" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="P60" s="3" t="s">
+      <c r="P60" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="U60" s="3" t="s">
+      <c r="U60" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="O61" s="3" t="s">
+      <c r="O61" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="P61" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="U61" s="3" t="s">
+      <c r="U61" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="M62" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="2" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>4.42039002756E11</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="O63" s="3" t="s">
+      <c r="O63" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="P63" s="3" t="s">
+      <c r="P63" s="2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="O65" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="P65" s="3" t="s">
+      <c r="P65" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="U65" s="3" t="s">
+      <c r="U65" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="O66" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="P66" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="Q66" s="3" t="s">
+      <c r="Q66" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="R66" s="3" t="s">
+      <c r="R66" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="U66" s="3" t="s">
+      <c r="U66" s="2" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U68" s="3" t="s">
+      <c r="U68" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="U71" s="3" t="s">
+      <c r="U71" s="2" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="M73" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="N73" s="3" t="s">
+      <c r="N73" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="U73" s="3" t="s">
+      <c r="U73" s="2" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="M74" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="N74" s="3" t="s">
+      <c r="N74" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="O74" s="3" t="s">
+      <c r="O74" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="P74" s="3" t="s">
+      <c r="P74" s="2" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="M75" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="N75" s="3" t="s">
+      <c r="N75" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="O75" s="3" t="s">
+      <c r="O75" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="P75" s="3" t="s">
+      <c r="P75" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="U75" s="3" t="s">
+      <c r="U75" s="2" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="M77" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="N77" s="3" t="s">
+      <c r="N77" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="O77" s="3" t="s">
+      <c r="O77" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="P77" s="3" t="s">
+      <c r="P77" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="U77" s="3" t="s">
+      <c r="U77" s="2" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="O78" s="3" t="s">
+      <c r="O78" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="P78" s="3" t="s">
+      <c r="P78" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="U78" s="3" t="s">
+      <c r="U78" s="2" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I79" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="M79" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="N79" s="3" t="s">
+      <c r="N79" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="O79" s="3" t="s">
+      <c r="O79" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="P79" s="3" t="s">
+      <c r="P79" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="U79" s="3" t="s">
+      <c r="U79" s="2" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="U80" s="3" t="s">
+      <c r="U80" s="2" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="O81" s="3" t="s">
+      <c r="O81" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="P81" s="3" t="s">
+      <c r="P81" s="2" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="U83" s="3" t="s">
+      <c r="U83" s="2" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I84" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="M84" s="3" t="s">
+      <c r="M84" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="N84" s="3" t="s">
+      <c r="N84" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="O84" s="3" t="s">
+      <c r="O84" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="P84" s="3" t="s">
+      <c r="P84" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="U84" s="3" t="s">
+      <c r="U84" s="2" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="O85" s="3" t="s">
+      <c r="O85" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="P85" s="3" t="s">
+      <c r="P85" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="U85" s="3" t="s">
+      <c r="U85" s="2" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="M86" s="3" t="s">
+      <c r="M86" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="N86" s="3" t="s">
+      <c r="N86" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="O86" s="3" t="s">
+      <c r="O86" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="P86" s="3" t="s">
+      <c r="P86" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="Q86" s="3" t="s">
+      <c r="Q86" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="R86" s="3" t="s">
+      <c r="R86" s="2" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I87" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="M87" s="3" t="s">
+      <c r="M87" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="N87" s="3" t="s">
+      <c r="N87" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="O87" s="3" t="s">
+      <c r="O87" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="P87" s="3" t="s">
+      <c r="P87" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="U87" s="3" t="s">
+      <c r="U87" s="2" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="M88" s="3" t="s">
+      <c r="M88" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="N88" s="3" t="s">
+      <c r="N88" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="O88" s="3" t="s">
+      <c r="O88" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="P88" s="3" t="s">
+      <c r="P88" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="U88" s="3" t="s">
+      <c r="U88" s="2" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H89" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="I89" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J89" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="M89" s="3" t="s">
+      <c r="M89" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="N89" s="3" t="s">
+      <c r="N89" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="O89" s="3" t="s">
+      <c r="O89" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="P89" s="3" t="s">
+      <c r="P89" s="2" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="2">
         <v>4.42073401488E11</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I90" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J90" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="O90" s="3" t="s">
+      <c r="O90" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="P90" s="3" t="s">
+      <c r="P90" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="U90" s="3" t="s">
+      <c r="U90" s="2" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="I92" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="O92" s="3" t="s">
+      <c r="O92" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="P92" s="3" t="s">
+      <c r="P92" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="U92" s="3" t="s">
+      <c r="U92" s="2" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="I93" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="O93" s="3" t="s">
+      <c r="O93" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="P93" s="3" t="s">
+      <c r="P93" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="U93" s="3" t="s">
+      <c r="U93" s="2" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I94" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J94" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="O94" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="P94" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="U94" s="2" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="I95" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="J95" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="O95" s="3" t="s">
+      <c r="O95" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="P95" s="3" t="s">
+      <c r="P95" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="U95" s="3" t="s">
+      <c r="U95" s="2" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="I96" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="J96" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="O96" s="3" t="s">
+      <c r="O96" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="P96" s="3" t="s">
+      <c r="P96" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="U96" s="3" t="s">
+      <c r="U96" s="2" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="I100" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="O100" s="3" t="s">
+      <c r="O100" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="P100" s="3" t="s">
+      <c r="P100" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="U100" s="3" t="s">
+      <c r="U100" s="2" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="I101" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="M101" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="N101" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="O101" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="P101" s="3" t="s">
+      <c r="P101" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="U101" s="3" t="s">
+      <c r="U101" s="2" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G102" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="H102" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="I102" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="J102" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="L102" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="M102" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="N102" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="O102" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="P102" s="2" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="H103" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="I103" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="J103" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="M103" s="3" t="s">
+      <c r="M103" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="N103" s="3" t="s">
+      <c r="N103" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="O103" s="3" t="s">
+      <c r="O103" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="P103" s="3" t="s">
+      <c r="P103" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="Q103" s="3" t="s">
+      <c r="Q103" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="R103" s="3" t="s">
+      <c r="R103" s="2" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G105" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H105" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="I105" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="J105" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="M105" s="3" t="s">
+      <c r="M105" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="N105" s="3" t="s">
+      <c r="N105" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="O105" s="3" t="s">
+      <c r="O105" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="P105" s="3" t="s">
+      <c r="P105" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="Q105" s="3" t="s">
+      <c r="Q105" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="R105" s="3" t="s">
+      <c r="R105" s="2" t="s">
         <v>695</v>
       </c>
     </row>

--- a/correos.xlsx
+++ b/correos.xlsx
@@ -148,7 +148,7 @@
     <t>in/drayhamalayoubi</t>
   </si>
   <si>
-    <t>info@lmaclinic.com, example@gmail.com</t>
+    <t xml:space="preserve">info@lmaclinic.com, example@gmail.com,wixodday@wix.com </t>
   </si>
   <si>
     <t>http://www.sisuclinic.com</t>
@@ -193,7 +193,7 @@
     <t>Medical &amp; Aesthetic Clinic - London - Pimlico</t>
   </si>
   <si>
-    <t>info@mcliniclondon.co.uk</t>
+    <t>asdsd@wix.com,info@mcliniclondon.co.uk</t>
   </si>
   <si>
     <t>http://drwellsaesthetics.com</t>
@@ -2616,7 +2616,7 @@
       <c r="F7" s="2">
         <v>4.42078285602E11</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="3" t="s">
         <v>60</v>
       </c>
     </row>
